--- a/data/income_statement/2digits/total/79_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/79_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>79-Travel agency, tour operator and other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>79-Travel agency, tour operator and other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11546424.06484</v>
@@ -956,76 +862,86 @@
         <v>13842490.72336</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>17856247.30458</v>
+        <v>17859507.63844</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>18476887.18221</v>
+        <v>18491326.20244</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>22363629.02152</v>
+        <v>22394958.90721</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>28144665.28509</v>
+        <v>28251623.19952</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>30136606.29986</v>
+        <v>31505966.62329</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>27090331.67551</v>
+        <v>27191534.57998</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>43243475.40307999</v>
+        <v>43243475.40308</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>62417293.89242001</v>
+        <v>62519469.87421999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>80990809.05138999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>81340333.96266</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>30247981.6</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6231064.674299999</v>
+        <v>6231064.6743</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7526410.13166</v>
+        <v>7526410.131659999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9627898.719719999</v>
+        <v>9631136.01341</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>10512414.70701</v>
+        <v>10526564.60484</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13501594.61934</v>
+        <v>13532612.59915</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16746297.19917</v>
+        <v>16784190.02282</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>19214237.27968</v>
+        <v>19840360.64387</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17450947.70248</v>
+        <v>17541226.67852</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>26312226.69455</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>37679925.15435</v>
+        <v>37733209.36096</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>45870749.20221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>46125089.8643</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20840510.949</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5052149.72166</v>
@@ -1034,76 +950,86 @@
         <v>6017232.72176</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7882609.680040001</v>
+        <v>7882609.68004</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7606856.62571</v>
+        <v>7606856.625709999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8502845.730070001</v>
+        <v>8502971.030379999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10952241.08406</v>
+        <v>11020541.26822</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10432274.79172</v>
+        <v>11167230.71943</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9080743.529920001</v>
+        <v>9091586.351440001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>16197274.66728</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>23570178.65239</v>
+        <v>23617127.65121</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>33841721.93014999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33925973.36269</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8788663.909</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>263209.66888</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>298847.8699399999</v>
+        <v>298847.86994</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>345738.90482</v>
+        <v>345761.94499</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>357615.8494900001</v>
+        <v>357904.97189</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>359188.67211</v>
+        <v>359375.27768</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>446127.0018600001</v>
+        <v>446891.90848</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>490094.22846</v>
+        <v>498375.25999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>558640.44311</v>
+        <v>558721.55002</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>733974.04125</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1167190.08568</v>
+        <v>1169132.86205</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1278337.91903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1289270.73567</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>618806.742</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>111746.55207</v>
@@ -1112,76 +1038,86 @@
         <v>143091.96885</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>192192.54284</v>
+        <v>192194.85156</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>206281.61381</v>
+        <v>206283.49613</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>247367.55896</v>
+        <v>247374.0449</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>423912.59568</v>
+        <v>424161.4304</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>364817.11299</v>
+        <v>379107.65332</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>537840.1979</v>
+        <v>540129.36569</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>644306.0497699999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>892468.6243500001</v>
+        <v>893459.5121000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>999440.1511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1004107.41693</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1244627.5</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>92839.54879</v>
+        <v>92839.54878999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>116835.6192</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>159464.71896</v>
+        <v>159467.02768</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>171994.48276</v>
+        <v>171996.36508</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>209569.58055</v>
+        <v>209576.06649</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>390994.0634500001</v>
+        <v>391242.89817</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>319868.14054</v>
+        <v>326122.12076</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>470592.16544</v>
+        <v>472881.33323</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>592716.14889</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>791856.03267</v>
+        <v>792805.30957</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>928972.8162000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>933613.14194</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1195414.976</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16968.87304</v>
@@ -1202,7 +1138,7 @@
         <v>29906.30705</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>39490.53208</v>
+        <v>47525.76156</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>57328.19221000001</v>
@@ -1211,16 +1147,21 @@
         <v>44727.15736</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>96479.97486000002</v>
+        <v>96521.58571</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>51913.28298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>52154.84284</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>41914.102</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1938.13024</v>
@@ -1241,25 +1182,30 @@
         <v>3012.22518</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5458.440369999999</v>
+        <v>5459.771</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>9919.840249999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6862.743520000002</v>
+        <v>6862.743520000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>4132.61682</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>18554.05192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18339.43215</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7298.422</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11434677.51277</v>
@@ -1268,37 +1214,42 @@
         <v>13699398.75451</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17664054.76174</v>
+        <v>17667312.78688</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>18270605.5684</v>
+        <v>18285042.70631</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>22116261.46256</v>
+        <v>22147584.86231</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>27720752.68941</v>
+        <v>27827461.76912</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>29771789.18687</v>
+        <v>31126858.96997</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>26552491.47761</v>
+        <v>26651405.21429</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>42599169.35331</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>61524825.26807</v>
+        <v>61626010.36212</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>79991368.90029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>80336226.54572998</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>29003354.1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>10356916.46209</v>
@@ -1307,37 +1258,42 @@
         <v>12431603.72725</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>15981907.20031</v>
+        <v>15984748.45133</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>16514081.48084</v>
+        <v>16527216.77817</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>20177452.90051</v>
+        <v>20207775.67814</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>25388231.17301</v>
+        <v>25482930.17746</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>27129767.84373</v>
+        <v>28394605.90635</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>24089433.25524</v>
+        <v>24178152.86784</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>39186397.83710001</v>
+        <v>39186397.8371</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>56843950.24993</v>
+        <v>56943336.87495</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>74363273.10331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>74620821.70061</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26870895.368</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>119881.12657</v>
@@ -1352,31 +1308,36 @@
         <v>92402.47695</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>120380.4011</v>
+        <v>129749.71118</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>49299.42199</v>
+        <v>50553.82082000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>65463.61932999999</v>
+        <v>65760.49225000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>45728.28249</v>
+        <v>45797.35524</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>825625.8386100001</v>
+        <v>825625.83861</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>313744.9561599999</v>
+        <v>314439.04512</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>351191.7461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>356759.87973</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>139124.6</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>617861.8335399999</v>
@@ -1385,76 +1346,86 @@
         <v>651886.2063600001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>823475.5262800001</v>
+        <v>823475.52628</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>949690.3139299999</v>
+        <v>950796.47663</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1019537.09965</v>
+        <v>1021499.68045</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1475857.77356</v>
+        <v>1475574.60676</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1619134.30614</v>
+        <v>1622615.29165</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1816162.77366</v>
+        <v>1816402.45602</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2792662.943359999</v>
+        <v>2792662.94336</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4326654.6031</v>
+        <v>4334736.258</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3025474.22186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2980572.56852</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2430138.553</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9607258.454809999</v>
+        <v>9607258.454810001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>11661337.80156</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14948244.76986</v>
+        <v>14951086.02088</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>15443343.97592</v>
+        <v>15455373.11055</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19005224.97</v>
+        <v>19024215.85675</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>23841118.32656</v>
+        <v>23934846.09898</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>25241723.66897</v>
+        <v>26498906.0055</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>22020248.96475</v>
+        <v>22108657.41594</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>35508581.59881999</v>
+        <v>35508581.59882</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>52123240.27265</v>
+        <v>52213376.09762999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>70661653.71522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>70958153.57536</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24146414.749</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11915.04717</v>
@@ -1475,25 +1446,30 @@
         <v>21955.6509</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>203446.24929</v>
+        <v>207324.11695</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>207293.23434</v>
+        <v>207295.64064</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>59527.45630999999</v>
+        <v>59527.45631</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>80310.41802000001</v>
+        <v>80785.47420000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>324953.42013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>325335.677</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>155217.466</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1077761.05068</v>
@@ -1502,37 +1478,42 @@
         <v>1267795.02726</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1682147.56143</v>
+        <v>1682564.33555</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1756524.08756</v>
+        <v>1757825.92814</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1938808.56205</v>
+        <v>1939809.18417</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2332521.5164</v>
+        <v>2344531.59166</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2642021.34314</v>
+        <v>2732253.06362</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2463058.22237</v>
+        <v>2473252.34645</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3412771.51621</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4680875.018139999</v>
+        <v>4682673.48717</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5628095.79698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5715404.845120001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2132458.732</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1020412.98391</v>
@@ -1541,37 +1522,42 @@
         <v>1135131.86732</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1381537.42475</v>
+        <v>1381822.9171</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1551694.12802</v>
+        <v>1552683.6468</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1686389.67198</v>
+        <v>1688501.11305</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2018117.03018</v>
+        <v>2026792.80104</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2357488.77874</v>
+        <v>2424614.26268</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2541485.0353</v>
+        <v>2552353.02749</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3067277.57696</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3941654.79434</v>
+        <v>3952630.93675</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4829904.915659999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4881637.916709999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3175524.343</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1586.06325</v>
@@ -1589,7 +1575,7 @@
         <v>7954.50422</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3288.278330000001</v>
+        <v>3288.27833</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>3293.97146</v>
@@ -1604,13 +1590,18 @@
         <v>6832.466990000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15328.65532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12359.48616</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17845.072</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>174035.34356</v>
@@ -1619,76 +1610,86 @@
         <v>213841.40884</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>276465.09539</v>
+        <v>276528.37735</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>341196.99417</v>
+        <v>341235.3332</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>364843.54643</v>
+        <v>364991.89654</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>475036.95806</v>
+        <v>476651.3167199999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>551840.94035</v>
+        <v>569837.9606700001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>649519.87223</v>
+        <v>649840.0250499999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>868496.1932999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1102390.67389</v>
+        <v>1104394.39317</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1408968.87625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1418054.02021</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>611635.007</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>844791.5771</v>
+        <v>844791.5770999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>918072.7262</v>
+        <v>918072.7261999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1096333.54137</v>
+        <v>1096555.75176</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1202958.84854</v>
+        <v>1203910.02829</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1313591.62133</v>
+        <v>1315554.71229</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1539791.79379</v>
+        <v>1546853.20599</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1802353.86693</v>
+        <v>1851482.33055</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1888820.96621</v>
+        <v>1899368.80558</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2195481.37699</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2832431.65346</v>
+        <v>2841404.07659</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3405607.38409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3451224.41034</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2546044.264</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>57348.06677</v>
@@ -1697,37 +1698,42 @@
         <v>132663.15994</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>300610.13668</v>
+        <v>300741.41845</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>204829.95954</v>
+        <v>205142.28134</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>252418.89007</v>
+        <v>251308.07112</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>314404.48622</v>
+        <v>317738.79062</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>284532.5644</v>
+        <v>307638.80094</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-78426.81292999999</v>
+        <v>-79100.68104000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>345493.9392499999</v>
+        <v>345493.93925</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>739220.2237999999</v>
+        <v>730042.5504199999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>798190.8813199999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>833766.9284099999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1043065.611</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>762181.92687</v>
@@ -1736,37 +1742,42 @@
         <v>1194357.71247</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1255890.86732</v>
+        <v>1255891.70036</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>892516.6204200001</v>
+        <v>892521.8376900001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1193515.82029</v>
+        <v>1194188.95671</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1545520.27227</v>
+        <v>1553720.56719</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2929528.15811</v>
+        <v>3071128.03542</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2254234.77928</v>
+        <v>2257939.89382</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3743580.92893</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14636037.18765</v>
+        <v>14636478.37273</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9430948.66564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9435208.756130001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12325463.653</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>23185.06471</v>
@@ -1784,10 +1795,10 @@
         <v>16769.80253</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>15955.5704</v>
+        <v>15955.9529</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>17196.93129</v>
+        <v>19551.3271</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>30000.37063</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>55681.37208</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>37017.148</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3660.79995</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>1791230.05244</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>476.459</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>63796.48813000001</v>
+        <v>63796.48813</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>44623.95309</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>55163.13259</v>
+        <v>55163.96563</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>73198.01675999998</v>
+        <v>73198.04798999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>83448.05254</v>
+        <v>83468.69690000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>74354.59797999999</v>
+        <v>74377.08259999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>95393.19331999999</v>
+        <v>99009.50744</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>114967.10327</v>
+        <v>115025.62329</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>170343.31054</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>285859.70709</v>
+        <v>285867.8961599999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>346731.6355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>347119.30335</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>272622.947</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>27088.37609000001</v>
+        <v>27088.37609</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>28743.733</v>
@@ -1901,10 +1927,10 @@
         <v>31913.30775</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>41504.82587</v>
+        <v>41818.85778</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>51919.3937</v>
+        <v>52032.04358</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>50037.32854000001</v>
@@ -1913,16 +1939,21 @@
         <v>52997.54761</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>82209.65789</v>
+        <v>82217.66167</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>117604.96522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>118165.42836</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>45019.955</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6625.42662</v>
@@ -1940,13 +1971,13 @@
         <v>4190.54933</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2395.82579</v>
+        <v>2472.782</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2175.5721</v>
+        <v>2221.28381</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5006.28034</v>
+        <v>5194.060140000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>18790.07351</v>
@@ -1955,37 +1986,42 @@
         <v>4140.46642</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>39604.05974</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>39607.47223000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9700.472</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>6969.98605</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3026.62353</v>
+        <v>3026.623529999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>14923.14894</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4019.635389999999</v>
+        <v>4019.63539</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>20368.2416</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>52573.07448</v>
+        <v>52631.60369999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>65547.0436</v>
+        <v>65584.16071</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19397.42757</v>
+        <v>19411.13063</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>21013.50823</v>
@@ -1994,52 +2030,62 @@
         <v>47096.66327</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>27997.0907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>28064.84921</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>29890.976</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>515153.5299</v>
+        <v>515153.5298999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>679303.61424</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>994033.99042</v>
+        <v>994033.9904199999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>517515.54335</v>
+        <v>517520.72939</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>953906.1995699999</v>
+        <v>954522.54366</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1231176.53764</v>
+        <v>1238836.15575</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2556604.74691</v>
+        <v>2686289.87827</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1884304.94637</v>
+        <v>1887080.77992</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3115495.82349</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13727860.27314</v>
+        <v>13728240.07463</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6626360.77269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6628086.170860001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11574207.903</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>570.8872699999999</v>
@@ -2057,10 +2103,10 @@
         <v>42.17033</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>55.99138000000001</v>
+        <v>55.99138</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1654.31849</v>
+        <v>1655.98948</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>197.06051</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1255.99982</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>82.819</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>59.93872</v>
@@ -2108,94 +2159,109 @@
         <v>58.14005</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>257.7334</v>
+        <v>302.80957</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>100.70281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>121.48148</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>325.315</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>115071.42943</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>325937.07906</v>
+        <v>325937.0790600001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>93362.94218000001</v>
+        <v>93362.94218</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>193468.66002</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>78748.42197</v>
+        <v>78784.56994</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>119080.42752</v>
+        <v>119148.71987</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>127828.24279</v>
+        <v>133575.12912</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>123436.17737</v>
+        <v>124105.45548</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>338945.74578</v>
+        <v>338945.7457800001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>420249.19329</v>
+        <v>420249.30786</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>424382.0146400001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>425876.6262999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>356119.659</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>576798.5169500001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>680986.90965</v>
+        <v>680986.9096499999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1443988.63543</v>
+        <v>1443994.13251</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>529747.56684</v>
+        <v>529757.9008299999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1076109.39321</v>
+        <v>1076889.9072</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1398247.15429</v>
+        <v>1407884.80543</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2628601.9214</v>
+        <v>2770968.5293</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2095524.4754</v>
+        <v>2099834.87661</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3443321.89224</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>14668082.14358</v>
+        <v>14668484.59148</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7577252.31909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7579911.467319999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12409677.776</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>23092.80095</v>
@@ -2210,13 +2276,13 @@
         <v>25166.23324</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>20309.04544</v>
+        <v>20309.39284</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>24441.04192</v>
+        <v>24443.54295</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>45715.96881999999</v>
+        <v>45979.09888000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>33056.64379</v>
@@ -2225,16 +2291,21 @@
         <v>31030.33758</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>98654.27413000001</v>
+        <v>98661.32662000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>63366.63675</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>63634.27323</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>22170.929</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13470.0788</v>
@@ -2252,10 +2323,10 @@
         <v>17294.60033</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>106868.77911</v>
+        <v>107842.36312</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>40886.25439</v>
+        <v>41326.27619</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>25663.39906</v>
@@ -2264,16 +2335,21 @@
         <v>23591.2013</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21313.39985999999</v>
+        <v>21313.39986</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>247331.19455</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>100112.702</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3517.02414</v>
@@ -2291,10 +2367,10 @@
         <v>22953.87648</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>33173.29126000001</v>
+        <v>33173.29126</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>23835.83662</v>
+        <v>23843.51459</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>934.7763200000001</v>
@@ -2306,13 +2382,18 @@
         <v>18637.51009</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2156.74725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2301.84732</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>54639.765</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>498058.67622</v>
@@ -2324,34 +2405,39 @@
         <v>1171223.88549</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>478345.62931</v>
+        <v>478347.7707999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>997162.53882</v>
+        <v>997813.12079</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1211188.56153</v>
+        <v>1219763.4498</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2498678.83731</v>
+        <v>2640329.63773</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1982377.83912</v>
+        <v>1986689.22406</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3164405.5235</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14280440.75871</v>
+        <v>14280799.76299</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6852045.13325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6854103.100469999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12010906.61</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>239.24599</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>69.4308</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>70.631</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>29.10237</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>84.2362</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>127.17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>38391.58848</v>
+        <v>38391.58848000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>18040.30602</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>209600.81894</v>
+        <v>209606.31602</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>17105.84344</v>
+        <v>17114.03594</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18324.78888</v>
+        <v>18454.3735</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>22433.22509</v>
+        <v>22519.90292</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19322.16805</v>
+        <v>19327.1457</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>53264.22349</v>
+        <v>53263.23976</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>205165.3533</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>248729.73175</v>
+        <v>248766.12288</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>412198.94029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>412387.38475</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>221649.969</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>157538.67814</v>
@@ -2477,37 +2578,42 @@
         <v>161171.18319</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>262395.18052</v>
+        <v>262422.49046</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>204729.17695</v>
+        <v>205042.08714</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>248100.33316</v>
+        <v>248265.41497</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>250810.53127</v>
+        <v>251260.48695</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>311956.71769</v>
+        <v>324918.21113</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>413593.35021</v>
+        <v>413808.8019500001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>590897.84749</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>810680.5499</v>
+        <v>811392.1644100001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1070281.78609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1072050.55405</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>805129.113</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>133804.91814</v>
@@ -2516,37 +2622,42 @@
         <v>126918.23981</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>158379.79388</v>
+        <v>158407.10382</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>177158.79849</v>
+        <v>177471.70868</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>199572.62707</v>
+        <v>199737.70888</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>216663.33673</v>
+        <v>217113.29241</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>265504.86869</v>
+        <v>278466.36213</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>358266.01859</v>
+        <v>358481.47033</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>533086.61407</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>778692.78865</v>
+        <v>779404.40316</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1015507.30685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1017275.84738</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>790488.292</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>23733.76</v>
@@ -2561,7 +2672,7 @@
         <v>27570.37846</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>48527.70609000001</v>
+        <v>48527.70609</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>34147.19454</v>
@@ -2570,7 +2681,7 @@
         <v>46451.84899999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>55327.33162</v>
+        <v>55327.33161999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>57811.23342</v>
@@ -2579,91 +2690,106 @@
         <v>31987.76125</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>54774.47924</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>54774.70667</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14640.821</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>85192.79855000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>484862.7795700001</v>
+        <v>484862.77957</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-149882.8119499999</v>
+        <v>-149783.50416</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>362869.83617</v>
+        <v>362864.13106</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>121724.98399</v>
+        <v>120341.70566</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>210867.07293</v>
+        <v>212314.06543</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>273502.08342</v>
+        <v>282880.09593</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-333309.85926</v>
+        <v>-334804.46578</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>54855.12845</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-103505.28203</v>
+        <v>-113355.83274</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1581605.44178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1617013.66317</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1932408.847</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>57790.1047</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>93174.17361999999</v>
+        <v>93174.17362</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>313071.21819</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>95663.43089999999</v>
+        <v>95663.43090000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>102751.58584</v>
+        <v>102958.21929</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>157962.43391</v>
+        <v>158078.8135</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>181834.81937</v>
+        <v>187022.07225</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>293296.76049</v>
+        <v>293523.45378</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>303576.95712</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>418789.70399</v>
+        <v>419165.0555499999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>586103.09211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>588844.8949300001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>648439.895</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1925.03611</v>
@@ -2684,10 +2810,10 @@
         <v>2229.23022</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5525.8625</v>
+        <v>5686.49543</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2601.99826</v>
+        <v>2608.87326</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>3898.70118</v>
@@ -2696,16 +2822,21 @@
         <v>11417.07605</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10318.42765</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>10298.7819</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4368.73</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>55865.06859</v>
+        <v>55865.06858999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>91942.64227</v>
@@ -2714,34 +2845,39 @@
         <v>311414.68865</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>93855.63057000001</v>
+        <v>93855.63056999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>99461.45207000001</v>
+        <v>99668.08551999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>155733.20369</v>
+        <v>155849.58328</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>176308.95687</v>
+        <v>181335.57682</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>290694.76223</v>
+        <v>290914.58052</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>299678.25594</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>407372.62794</v>
+        <v>407747.9795</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>575784.66446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>578546.11303</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>644071.165</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>116726.10963</v>
@@ -2750,37 +2886,42 @@
         <v>99739.48298</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>356897.1771799999</v>
+        <v>356911.22447</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>97420.73727</v>
+        <v>97678.51171000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>149246.10646</v>
+        <v>149351.09154</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>253539.35944</v>
+        <v>253325.46409</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>115158.86253</v>
+        <v>117725.80535</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>246815.30415</v>
+        <v>246873.70205</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>446567.9807200001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>484664.64595</v>
+        <v>485201.2999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>428595.2664599999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>430230.7288299999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>344994.572</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>321.79396</v>
@@ -2804,7 +2945,7 @@
         <v>1713.57366</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>7945.11547</v>
+        <v>7945.115469999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3150.17431</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3222.00827</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>13255.862</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>9220.91797</v>
@@ -2831,16 +2977,16 @@
         <v>7222.50997</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9813.455179999999</v>
+        <v>9827.27234</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6452.72655</v>
+        <v>6453.32075</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15875.83284</v>
+        <v>15886.07022</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12913.36739</v>
+        <v>14032.84701</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>8672.35002</v>
@@ -2849,16 +2995,21 @@
         <v>105968.1911</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>25895.7078</v>
+        <v>25900.10091</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22178.2881</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>22192.88671000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>38070.884</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>107183.3977</v>
@@ -2867,151 +3018,169 @@
         <v>83827.70899000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>348969.83536</v>
+        <v>348983.88265</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>86947.27149000001</v>
+        <v>87191.22877</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>138247.03067</v>
+        <v>138351.42155</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>237286.55327</v>
+        <v>237062.42054</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>100531.92148</v>
+        <v>101979.38468</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>230197.83866</v>
+        <v>230256.23656</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>337449.61531</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>456120.35198</v>
+        <v>456652.61282</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>403194.97009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>404815.83385</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>293667.826</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>26256.79362</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>478297.4702100001</v>
+        <v>478297.47021</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-193708.77094</v>
+        <v>-193623.51044</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>361112.5298</v>
+        <v>360849.05025</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>75230.46337</v>
+        <v>73948.83340999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>115290.1474</v>
+        <v>117067.41484</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>340178.04026</v>
+        <v>352176.36283</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-286828.40292</v>
+        <v>-288154.71405</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-88135.89515000001</v>
+        <v>-88135.89514999998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-169380.22399</v>
+        <v>-179392.07709</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1739113.26743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1775627.82927</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1628963.524</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>38377.63376999999</v>
+        <v>38377.63377</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>53765.47535</v>
+        <v>53765.47534999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>80634.53898</v>
+        <v>80655.33014000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>75901.74118000001</v>
+        <v>75927.32662000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>86173.02655</v>
+        <v>86116.37493999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>105196.66076</v>
+        <v>105715.79321</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>122791.07444</v>
+        <v>127307.64994</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>99937.97622999999</v>
+        <v>99982.42496</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>121447.50612</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>221306.31946</v>
+        <v>221416.75169</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>262770.50059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>265995.03673</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>142555.646</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-12120.84015</v>
+        <v>-12120.84014999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>424531.99486</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-274343.30992</v>
+        <v>-274278.84058</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>285210.7886199999</v>
+        <v>284921.72363</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-10942.56318</v>
+        <v>-12167.54153</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>10093.48664</v>
+        <v>11351.62163</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>217386.96582</v>
+        <v>224868.71289</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-386766.37915</v>
+        <v>-388137.13901</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-209583.40127</v>
+        <v>-209583.4012699999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-390686.54345</v>
+        <v>-400808.82878</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1476342.76684</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1509632.79254</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1771519.17</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>7547</v>
@@ -3038,34 +3210,37 @@
         <v>7651</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7916</v>
+        <v>7918</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7824</v>
+        <v>7834</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7277</v>
+        <v>7298</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7632</v>
+        <v>7669</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8172</v>
+        <v>8272</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8604</v>
+        <v>8632</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9188</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9849</v>
+        <v>10347</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11648</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>